--- a/report/final.xlsx
+++ b/report/final.xlsx
@@ -5766,7 +5766,7 @@
         <v>137</v>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
         <v>5</v>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -5804,7 +5804,7 @@
         <v>138</v>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D89" t="n">
         <v>5</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89" t="n">
         <v>2</v>
@@ -5842,7 +5842,7 @@
         <v>139</v>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D90" t="n">
         <v>5</v>
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K90" t="n">
         <v>3</v>
@@ -5880,7 +5880,7 @@
         <v>140</v>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D91" t="n">
         <v>5</v>
@@ -5901,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K91" t="n">
         <v>4</v>
@@ -5918,7 +5918,7 @@
         <v>141</v>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
         <v>5</v>
@@ -5939,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
         <v>5</v>
@@ -7286,7 +7286,7 @@
         <v>185</v>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
         <v>6</v>
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K128" t="n">
         <v>1</v>
@@ -7324,7 +7324,7 @@
         <v>186</v>
       </c>
       <c r="C129" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D129" t="n">
         <v>6</v>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
         <v>2</v>
@@ -7362,7 +7362,7 @@
         <v>187</v>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
         <v>6</v>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K130" t="n">
         <v>3</v>
@@ -7400,7 +7400,7 @@
         <v>188</v>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
         <v>6</v>
@@ -7421,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
         <v>4</v>
@@ -7438,7 +7438,7 @@
         <v>189</v>
       </c>
       <c r="C132" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D132" t="n">
         <v>6</v>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
         <v>5</v>
@@ -7476,7 +7476,7 @@
         <v>190</v>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D133" t="n">
         <v>6</v>
@@ -7497,13 +7497,13 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K133" t="n">
         <v>6</v>
       </c>
       <c r="L133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -11460,7 +11460,7 @@
         <v>323</v>
       </c>
       <c r="C238" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D238" t="n">
         <v>6</v>
@@ -11481,7 +11481,7 @@
         <v>2</v>
       </c>
       <c r="J238" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K238" t="n">
         <v>1</v>
@@ -11498,7 +11498,7 @@
         <v>324</v>
       </c>
       <c r="C239" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D239" t="n">
         <v>6</v>
@@ -11519,7 +11519,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K239" t="n">
         <v>2</v>
@@ -11536,7 +11536,7 @@
         <v>325</v>
       </c>
       <c r="C240" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D240" t="n">
         <v>6</v>
@@ -11557,7 +11557,7 @@
         <v>2</v>
       </c>
       <c r="J240" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K240" t="n">
         <v>3</v>
@@ -11574,7 +11574,7 @@
         <v>326</v>
       </c>
       <c r="C241" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D241" t="n">
         <v>6</v>
@@ -11595,7 +11595,7 @@
         <v>2</v>
       </c>
       <c r="J241" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K241" t="n">
         <v>4</v>
@@ -11612,7 +11612,7 @@
         <v>327</v>
       </c>
       <c r="C242" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D242" t="n">
         <v>6</v>
@@ -11633,7 +11633,7 @@
         <v>2</v>
       </c>
       <c r="J242" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K242" t="n">
         <v>5</v>
@@ -11650,7 +11650,7 @@
         <v>329</v>
       </c>
       <c r="C243" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D243" t="n">
         <v>6</v>
@@ -11671,13 +11671,13 @@
         <v>2</v>
       </c>
       <c r="J243" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K243" t="n">
         <v>6</v>
       </c>
       <c r="L243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -12562,7 +12562,7 @@
         <v>358</v>
       </c>
       <c r="C267" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D267" t="n">
         <v>1</v>
@@ -12583,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K267" t="n">
         <v>1</v>
@@ -13474,7 +13474,7 @@
         <v>388</v>
       </c>
       <c r="C291" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D291" t="n">
         <v>15</v>
@@ -13495,7 +13495,7 @@
         <v>2</v>
       </c>
       <c r="J291" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K291" t="n">
         <v>1</v>
@@ -13512,7 +13512,7 @@
         <v>389</v>
       </c>
       <c r="C292" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D292" t="n">
         <v>15</v>
@@ -13533,7 +13533,7 @@
         <v>2</v>
       </c>
       <c r="J292" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K292" t="n">
         <v>2</v>
@@ -13550,7 +13550,7 @@
         <v>390</v>
       </c>
       <c r="C293" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D293" t="n">
         <v>15</v>
@@ -13571,7 +13571,7 @@
         <v>2</v>
       </c>
       <c r="J293" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K293" t="n">
         <v>3</v>
@@ -13588,7 +13588,7 @@
         <v>391</v>
       </c>
       <c r="C294" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D294" t="n">
         <v>15</v>
@@ -13609,7 +13609,7 @@
         <v>2</v>
       </c>
       <c r="J294" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K294" t="n">
         <v>4</v>
@@ -13626,7 +13626,7 @@
         <v>392</v>
       </c>
       <c r="C295" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D295" t="n">
         <v>15</v>
@@ -13647,7 +13647,7 @@
         <v>2</v>
       </c>
       <c r="J295" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K295" t="n">
         <v>5</v>
@@ -13664,7 +13664,7 @@
         <v>393</v>
       </c>
       <c r="C296" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D296" t="n">
         <v>15</v>
@@ -13685,13 +13685,13 @@
         <v>2</v>
       </c>
       <c r="J296" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K296" t="n">
         <v>6</v>
       </c>
       <c r="L296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -13702,7 +13702,7 @@
         <v>394</v>
       </c>
       <c r="C297" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D297" t="n">
         <v>15</v>
@@ -13723,7 +13723,7 @@
         <v>2</v>
       </c>
       <c r="J297" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K297" t="n">
         <v>7</v>
@@ -13740,7 +13740,7 @@
         <v>395</v>
       </c>
       <c r="C298" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D298" t="n">
         <v>15</v>
@@ -13761,7 +13761,7 @@
         <v>2</v>
       </c>
       <c r="J298" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K298" t="n">
         <v>8</v>
@@ -13778,7 +13778,7 @@
         <v>396</v>
       </c>
       <c r="C299" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D299" t="n">
         <v>15</v>
@@ -13799,7 +13799,7 @@
         <v>2</v>
       </c>
       <c r="J299" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K299" t="n">
         <v>9</v>
@@ -13816,7 +13816,7 @@
         <v>397</v>
       </c>
       <c r="C300" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D300" t="n">
         <v>15</v>
@@ -13837,7 +13837,7 @@
         <v>2</v>
       </c>
       <c r="J300" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K300" t="n">
         <v>10</v>
@@ -13854,7 +13854,7 @@
         <v>398</v>
       </c>
       <c r="C301" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D301" t="n">
         <v>15</v>
@@ -13875,7 +13875,7 @@
         <v>2</v>
       </c>
       <c r="J301" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K301" t="n">
         <v>11</v>
@@ -13892,7 +13892,7 @@
         <v>399</v>
       </c>
       <c r="C302" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D302" t="n">
         <v>15</v>
@@ -13913,7 +13913,7 @@
         <v>2</v>
       </c>
       <c r="J302" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K302" t="n">
         <v>12</v>
@@ -13930,7 +13930,7 @@
         <v>400</v>
       </c>
       <c r="C303" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D303" t="n">
         <v>15</v>
@@ -13951,7 +13951,7 @@
         <v>2</v>
       </c>
       <c r="J303" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K303" t="n">
         <v>13</v>
@@ -13968,7 +13968,7 @@
         <v>401</v>
       </c>
       <c r="C304" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D304" t="n">
         <v>15</v>
@@ -13989,7 +13989,7 @@
         <v>2</v>
       </c>
       <c r="J304" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K304" t="n">
         <v>14</v>
@@ -14006,7 +14006,7 @@
         <v>403</v>
       </c>
       <c r="C305" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D305" t="n">
         <v>15</v>
@@ -14027,7 +14027,7 @@
         <v>2</v>
       </c>
       <c r="J305" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K305" t="n">
         <v>15</v>
@@ -17460,7 +17460,7 @@
         <v>515</v>
       </c>
       <c r="C396" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D396" t="n">
         <v>6</v>
@@ -17481,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K396" t="n">
         <v>1</v>
@@ -17498,7 +17498,7 @@
         <v>516</v>
       </c>
       <c r="C397" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D397" t="n">
         <v>6</v>
@@ -17519,7 +17519,7 @@
         <v>0</v>
       </c>
       <c r="J397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K397" t="n">
         <v>2</v>
@@ -17536,7 +17536,7 @@
         <v>517</v>
       </c>
       <c r="C398" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D398" t="n">
         <v>6</v>
@@ -17557,7 +17557,7 @@
         <v>0</v>
       </c>
       <c r="J398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K398" t="n">
         <v>3</v>
@@ -17574,7 +17574,7 @@
         <v>518</v>
       </c>
       <c r="C399" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D399" t="n">
         <v>6</v>
@@ -17595,7 +17595,7 @@
         <v>0</v>
       </c>
       <c r="J399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K399" t="n">
         <v>4</v>
@@ -17612,7 +17612,7 @@
         <v>519</v>
       </c>
       <c r="C400" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D400" t="n">
         <v>6</v>
@@ -17633,7 +17633,7 @@
         <v>0</v>
       </c>
       <c r="J400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K400" t="n">
         <v>5</v>
@@ -17650,7 +17650,7 @@
         <v>520</v>
       </c>
       <c r="C401" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D401" t="n">
         <v>6</v>
@@ -17671,7 +17671,7 @@
         <v>0</v>
       </c>
       <c r="J401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K401" t="n">
         <v>6</v>
@@ -17878,7 +17878,7 @@
         <v>528</v>
       </c>
       <c r="C407" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D407" t="n">
         <v>1</v>
@@ -17899,7 +17899,7 @@
         <v>0</v>
       </c>
       <c r="J407" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K407" t="n">
         <v>1</v>
